--- a/data/predictions/race/aid_blacks/leveled/strongdemocrat.xlsx
+++ b/data/predictions/race/aid_blacks/leveled/strongdemocrat.xlsx
@@ -958,7 +958,7 @@
         <v>0.3029491960368076</v>
       </c>
       <c r="H34">
-        <v>0.1976521067565799</v>
+        <v>0.2360045172572459</v>
       </c>
       <c r="J34">
         <v>0.05167144708848075</v>
@@ -978,7 +978,7 @@
         <v>0.3148672368053808</v>
       </c>
       <c r="H35">
-        <v>0.1876718019740599</v>
+        <v>0.1963944416063315</v>
       </c>
       <c r="J35">
         <v>0.0442188076288804</v>
@@ -998,7 +998,7 @@
         <v>0.3183636221144747</v>
       </c>
       <c r="H36">
-        <v>0.2060765689870691</v>
+        <v>0.2100094494246715</v>
       </c>
       <c r="J36">
         <v>0.04717216921785119</v>
@@ -1018,7 +1018,7 @@
         <v>0.3226373423366428</v>
       </c>
       <c r="H37">
-        <v>0.2162771166577307</v>
+        <v>0.2530793995957374</v>
       </c>
       <c r="J37">
         <v>0.04303160033260935</v>
@@ -1038,7 +1038,7 @@
         <v>0.326839313058966</v>
       </c>
       <c r="H38">
-        <v>0.2149286874375943</v>
+        <v>0.2394788959889194</v>
       </c>
       <c r="J38">
         <v>0.04372707262572897</v>
@@ -1058,7 +1058,7 @@
         <v>0.3310479063974117</v>
       </c>
       <c r="H39">
-        <v>0.215794933673795</v>
+        <v>0.2298243120678433</v>
       </c>
       <c r="J39">
         <v>0.04112574149459407</v>
